--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_last_rep/ifoCAst_error_tables_last_rep_first_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_last_rep/ifoCAst_error_tables_last_rep_first_GVA.xlsx
@@ -423,22 +423,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1834157956792025</v>
+        <v>0.1871289562554429</v>
       </c>
       <c r="C2">
-        <v>1.553629544393481</v>
+        <v>1.495060261846345</v>
       </c>
       <c r="D2">
-        <v>6.793289391987143</v>
+        <v>6.487698093947865</v>
       </c>
       <c r="E2">
-        <v>2.606393944128006</v>
+        <v>2.547096011921786</v>
       </c>
       <c r="F2">
-        <v>2.664137841737291</v>
+        <v>2.599990646951396</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
